--- a/helpers/Staaten_Geocodes_Namen.xlsx
+++ b/helpers/Staaten_Geocodes_Namen.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15_Uebergreifende_Analysen\Projekte\Integrationsmonitoring\github\IM_Data\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0748EC9C-7D26-4FB2-859D-1DA5BAC24E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EDDAA8-1762-4400-A753-CBF44C18EC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1"/>
+    <workbookView xWindow="31935" yWindow="2505" windowWidth="21600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="106_Anlagen_Intern" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'106_Anlagen_Intern'!$A$3:$F$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="1012">
   <si>
     <t>106.01</t>
   </si>
@@ -2171,12 +2172,912 @@
   </si>
   <si>
     <t>"Ausländerinnen und Ausläänder insgesamt"</t>
+  </si>
+  <si>
+    <t>AGSWI</t>
+  </si>
+  <si>
+    <t>GENW</t>
+  </si>
+  <si>
+    <t>W000DEU</t>
+  </si>
+  <si>
+    <t>"Deutschland"</t>
+  </si>
+  <si>
+    <t>W121ALB</t>
+  </si>
+  <si>
+    <t>W122BIH</t>
+  </si>
+  <si>
+    <t>"Bosnien und Herzegowina"</t>
+  </si>
+  <si>
+    <t>W123AND</t>
+  </si>
+  <si>
+    <t>W124BEL</t>
+  </si>
+  <si>
+    <t>W125BGR</t>
+  </si>
+  <si>
+    <t>W126DNK</t>
+  </si>
+  <si>
+    <t>W126FRO</t>
+  </si>
+  <si>
+    <t>"Färöer"</t>
+  </si>
+  <si>
+    <t>W126GRL</t>
+  </si>
+  <si>
+    <t>"Grönland"</t>
+  </si>
+  <si>
+    <t>W127EST</t>
+  </si>
+  <si>
+    <t>W128FIN</t>
+  </si>
+  <si>
+    <t>W129FRA</t>
+  </si>
+  <si>
+    <t>W129GLP</t>
+  </si>
+  <si>
+    <t>"Guadeloupe"</t>
+  </si>
+  <si>
+    <t>W129GUF</t>
+  </si>
+  <si>
+    <t>"Französisch-Guayana"</t>
+  </si>
+  <si>
+    <t>W129MTQ</t>
+  </si>
+  <si>
+    <t>"Martinique"</t>
+  </si>
+  <si>
+    <t>W129MYT</t>
+  </si>
+  <si>
+    <t>"Mayotte"</t>
+  </si>
+  <si>
+    <t>W129NCL</t>
+  </si>
+  <si>
+    <t>"Neukaledonien"</t>
+  </si>
+  <si>
+    <t>W129PYF</t>
+  </si>
+  <si>
+    <t>"Französisch-Polynesien"</t>
+  </si>
+  <si>
+    <t>W129REU</t>
+  </si>
+  <si>
+    <t>"Réunion"</t>
+  </si>
+  <si>
+    <t>W130HRV</t>
+  </si>
+  <si>
+    <t>W131SVN</t>
+  </si>
+  <si>
+    <t>W134GRC</t>
+  </si>
+  <si>
+    <t>W135IRL</t>
+  </si>
+  <si>
+    <t>W136ISL</t>
+  </si>
+  <si>
+    <t>W137ITA</t>
+  </si>
+  <si>
+    <t>W139LVA</t>
+  </si>
+  <si>
+    <t>W140MNE</t>
+  </si>
+  <si>
+    <t>W141LIE</t>
+  </si>
+  <si>
+    <t>W142LTU</t>
+  </si>
+  <si>
+    <t>W143LUX</t>
+  </si>
+  <si>
+    <t>W144MKD</t>
+  </si>
+  <si>
+    <t>"Nordmazedonien"</t>
+  </si>
+  <si>
+    <t>W145MLT</t>
+  </si>
+  <si>
+    <t>W146MDA</t>
+  </si>
+  <si>
+    <t>"Republik Moldau"</t>
+  </si>
+  <si>
+    <t>W147MCO</t>
+  </si>
+  <si>
+    <t>W148ABW</t>
+  </si>
+  <si>
+    <t>"Aruba"</t>
+  </si>
+  <si>
+    <t>W148NLD</t>
+  </si>
+  <si>
+    <t>"Königreich der Niederlande"</t>
+  </si>
+  <si>
+    <t>W149BVT</t>
+  </si>
+  <si>
+    <t>"Bouvetinsel"</t>
+  </si>
+  <si>
+    <t>W149NOR</t>
+  </si>
+  <si>
+    <t>W149SJM</t>
+  </si>
+  <si>
+    <t>"Svalbard und Jan Mayen"</t>
+  </si>
+  <si>
+    <t>W151AUT</t>
+  </si>
+  <si>
+    <t>W152POL</t>
+  </si>
+  <si>
+    <t>W1531PRT</t>
+  </si>
+  <si>
+    <t>"Azoren"</t>
+  </si>
+  <si>
+    <t>W153PRT</t>
+  </si>
+  <si>
+    <t>W154ROU</t>
+  </si>
+  <si>
+    <t>W155SVK</t>
+  </si>
+  <si>
+    <t>W156SMR</t>
+  </si>
+  <si>
+    <t>W157SWE</t>
+  </si>
+  <si>
+    <t>W158CHE</t>
+  </si>
+  <si>
+    <t>W160RUS</t>
+  </si>
+  <si>
+    <t>W161ESP</t>
+  </si>
+  <si>
+    <t>"Spanische Hoheitsplätze in Nordafrika"</t>
+  </si>
+  <si>
+    <t>W163TUR</t>
+  </si>
+  <si>
+    <t>W164CZE</t>
+  </si>
+  <si>
+    <t>"Tschechien"</t>
+  </si>
+  <si>
+    <t>W165HUN</t>
+  </si>
+  <si>
+    <t>W166UKR</t>
+  </si>
+  <si>
+    <t>W167VAT</t>
+  </si>
+  <si>
+    <t>W168AIA</t>
+  </si>
+  <si>
+    <t>"Anguilla"</t>
+  </si>
+  <si>
+    <t>W168BMU</t>
+  </si>
+  <si>
+    <t>"Bermuda"</t>
+  </si>
+  <si>
+    <t>W168CYM</t>
+  </si>
+  <si>
+    <t>"Kaimaninseln"</t>
+  </si>
+  <si>
+    <t>W168FLK</t>
+  </si>
+  <si>
+    <t>"Falklandinseln (Malwinen)"</t>
+  </si>
+  <si>
+    <t>W168GBR</t>
+  </si>
+  <si>
+    <t>"Akrotiri und Dhekelia"</t>
+  </si>
+  <si>
+    <t>"Vereinigtes Königreich"</t>
+  </si>
+  <si>
+    <t>W168GIB</t>
+  </si>
+  <si>
+    <t>"Gibraltar"</t>
+  </si>
+  <si>
+    <t>W168IOT</t>
+  </si>
+  <si>
+    <t>"Britisches Territorium im Indischen Ozean"</t>
+  </si>
+  <si>
+    <t>W168MSR</t>
+  </si>
+  <si>
+    <t>"Montserrat"</t>
+  </si>
+  <si>
+    <t>W168PCN</t>
+  </si>
+  <si>
+    <t>"Pitcairninseln"</t>
+  </si>
+  <si>
+    <t>W168TCA</t>
+  </si>
+  <si>
+    <t>"Turks- und Caicosinseln"</t>
+  </si>
+  <si>
+    <t>W168VGB</t>
+  </si>
+  <si>
+    <t>"Britische Jungferninseln"</t>
+  </si>
+  <si>
+    <t>W169BLR</t>
+  </si>
+  <si>
+    <t>"Belarus"</t>
+  </si>
+  <si>
+    <t>W170SRB</t>
+  </si>
+  <si>
+    <t>W181CYP</t>
+  </si>
+  <si>
+    <t>W221DZA</t>
+  </si>
+  <si>
+    <t>W223AGO</t>
+  </si>
+  <si>
+    <t>W224ERI</t>
+  </si>
+  <si>
+    <t>W225ETH</t>
+  </si>
+  <si>
+    <t>W226LSO</t>
+  </si>
+  <si>
+    <t>W227BWA</t>
+  </si>
+  <si>
+    <t>W229BEN</t>
+  </si>
+  <si>
+    <t>W230DJI</t>
+  </si>
+  <si>
+    <t>W231CIV</t>
+  </si>
+  <si>
+    <t>"Côte d’Ivoire"</t>
+  </si>
+  <si>
+    <t>W232NGA</t>
+  </si>
+  <si>
+    <t>W233ZWE</t>
+  </si>
+  <si>
+    <t>W236GAB</t>
+  </si>
+  <si>
+    <t>W237GMB</t>
+  </si>
+  <si>
+    <t>W238GHA</t>
+  </si>
+  <si>
+    <t>W239MRT</t>
+  </si>
+  <si>
+    <t>W242CPV</t>
+  </si>
+  <si>
+    <t>"Cabo Verde"</t>
+  </si>
+  <si>
+    <t>W243KEN</t>
+  </si>
+  <si>
+    <t>W244COM</t>
+  </si>
+  <si>
+    <t>W245COG</t>
+  </si>
+  <si>
+    <t>W246COD</t>
+  </si>
+  <si>
+    <t>"Demokratische Republik Kongo"</t>
+  </si>
+  <si>
+    <t>W247LBR</t>
+  </si>
+  <si>
+    <t>W248LBY</t>
+  </si>
+  <si>
+    <t>"Libyen"</t>
+  </si>
+  <si>
+    <t>W249MDG</t>
+  </si>
+  <si>
+    <t>W251MLI</t>
+  </si>
+  <si>
+    <t>W252ESH</t>
+  </si>
+  <si>
+    <t>"Westsahara"</t>
+  </si>
+  <si>
+    <t>W252MAR</t>
+  </si>
+  <si>
+    <t>W253MUS</t>
+  </si>
+  <si>
+    <t>W254MOZ</t>
+  </si>
+  <si>
+    <t>W255NER</t>
+  </si>
+  <si>
+    <t>W256MWI</t>
+  </si>
+  <si>
+    <t>W257ZMB</t>
+  </si>
+  <si>
+    <t>W258BFA</t>
+  </si>
+  <si>
+    <t>"Burkina Faso"</t>
+  </si>
+  <si>
+    <t>W259GNB</t>
+  </si>
+  <si>
+    <t>W261GIN</t>
+  </si>
+  <si>
+    <t>W262CMR</t>
+  </si>
+  <si>
+    <t>W263ZAF</t>
+  </si>
+  <si>
+    <t>W265RWA</t>
+  </si>
+  <si>
+    <t>W267NAM</t>
+  </si>
+  <si>
+    <t>W268STP</t>
+  </si>
+  <si>
+    <t>"São Tomé und Príncipe"</t>
+  </si>
+  <si>
+    <t>W269SEN</t>
+  </si>
+  <si>
+    <t>W271SYC</t>
+  </si>
+  <si>
+    <t>W272SLE</t>
+  </si>
+  <si>
+    <t>W273SOM</t>
+  </si>
+  <si>
+    <t>W274GNQ</t>
+  </si>
+  <si>
+    <t>W277SDN</t>
+  </si>
+  <si>
+    <t>W2781SSD</t>
+  </si>
+  <si>
+    <t>"Abyen"</t>
+  </si>
+  <si>
+    <t>W278SSD</t>
+  </si>
+  <si>
+    <t>W281SWZ</t>
+  </si>
+  <si>
+    <t>"Eswatini"</t>
+  </si>
+  <si>
+    <t>W282TZA</t>
+  </si>
+  <si>
+    <t>"Vereinigte Republik Tansania"</t>
+  </si>
+  <si>
+    <t>W283TGO</t>
+  </si>
+  <si>
+    <t>W284TCD</t>
+  </si>
+  <si>
+    <t>W285TUN</t>
+  </si>
+  <si>
+    <t>W286UGA</t>
+  </si>
+  <si>
+    <t>W287EGY</t>
+  </si>
+  <si>
+    <t>W289CAF</t>
+  </si>
+  <si>
+    <t>W291BDI</t>
+  </si>
+  <si>
+    <t>W320ATG</t>
+  </si>
+  <si>
+    <t>W322BRB</t>
+  </si>
+  <si>
+    <t>W323ARG</t>
+  </si>
+  <si>
+    <t>W324BHS</t>
+  </si>
+  <si>
+    <t>W326BOL</t>
+  </si>
+  <si>
+    <t>"Plurinationaler Staat Bolivien"</t>
+  </si>
+  <si>
+    <t>W327BRA</t>
+  </si>
+  <si>
+    <t>W328GUY</t>
+  </si>
+  <si>
+    <t>W330BLZ</t>
+  </si>
+  <si>
+    <t>W332CHL</t>
+  </si>
+  <si>
+    <t>W333DMA</t>
+  </si>
+  <si>
+    <t>W334CRI</t>
+  </si>
+  <si>
+    <t>W335DOM</t>
+  </si>
+  <si>
+    <t>W336ECU</t>
+  </si>
+  <si>
+    <t>W337SLV</t>
+  </si>
+  <si>
+    <t>W340GRD</t>
+  </si>
+  <si>
+    <t>W345GTM</t>
+  </si>
+  <si>
+    <t>W346HTI</t>
+  </si>
+  <si>
+    <t>W347HND</t>
+  </si>
+  <si>
+    <t>W348CAN</t>
+  </si>
+  <si>
+    <t>W349COL</t>
+  </si>
+  <si>
+    <t>W351CUB</t>
+  </si>
+  <si>
+    <t>W353MEX</t>
+  </si>
+  <si>
+    <t>W354NIC</t>
+  </si>
+  <si>
+    <t>W355JAM</t>
+  </si>
+  <si>
+    <t>W357PAN</t>
+  </si>
+  <si>
+    <t>W359PRY</t>
+  </si>
+  <si>
+    <t>W361PER</t>
+  </si>
+  <si>
+    <t>W364SUR</t>
+  </si>
+  <si>
+    <t>W365URY</t>
+  </si>
+  <si>
+    <t>W366LCA</t>
+  </si>
+  <si>
+    <t>W367VEN</t>
+  </si>
+  <si>
+    <t>"Bolivarische Republik Venezuela"</t>
+  </si>
+  <si>
+    <t>W368ASM</t>
+  </si>
+  <si>
+    <t>"Amerikanisch-Samoa"</t>
+  </si>
+  <si>
+    <t>W368GUM</t>
+  </si>
+  <si>
+    <t>"Guam"</t>
+  </si>
+  <si>
+    <t>W368MNP</t>
+  </si>
+  <si>
+    <t>W368PRI</t>
+  </si>
+  <si>
+    <t>"Puerto Rico"</t>
+  </si>
+  <si>
+    <t>W368USA</t>
+  </si>
+  <si>
+    <t>W368VIR</t>
+  </si>
+  <si>
+    <t>"Amerikanische Jungferninseln"</t>
+  </si>
+  <si>
+    <t>W369VCT</t>
+  </si>
+  <si>
+    <t>W370KNA</t>
+  </si>
+  <si>
+    <t>W371TTO</t>
+  </si>
+  <si>
+    <t>W421YEM</t>
+  </si>
+  <si>
+    <t>W422ARM</t>
+  </si>
+  <si>
+    <t>W423AFG</t>
+  </si>
+  <si>
+    <t>W424BHR</t>
+  </si>
+  <si>
+    <t>W425AZE</t>
+  </si>
+  <si>
+    <t>W426BTN</t>
+  </si>
+  <si>
+    <t>W427MMR</t>
+  </si>
+  <si>
+    <t>W429BRN</t>
+  </si>
+  <si>
+    <t>W430GEO</t>
+  </si>
+  <si>
+    <t>W431LKA</t>
+  </si>
+  <si>
+    <t>W432VNM</t>
+  </si>
+  <si>
+    <t>W434PRK</t>
+  </si>
+  <si>
+    <t>"Demokratische Volksrepublik Korea"</t>
+  </si>
+  <si>
+    <t>W436IND</t>
+  </si>
+  <si>
+    <t>W437IDN</t>
+  </si>
+  <si>
+    <t>W438IRQ</t>
+  </si>
+  <si>
+    <t>W439IRN</t>
+  </si>
+  <si>
+    <t>"Islamische Republik Iran"</t>
+  </si>
+  <si>
+    <t>W441ISR</t>
+  </si>
+  <si>
+    <t>W442JPN</t>
+  </si>
+  <si>
+    <t>W444KAZ</t>
+  </si>
+  <si>
+    <t>W445JOR</t>
+  </si>
+  <si>
+    <t>W446KHM</t>
+  </si>
+  <si>
+    <t>W447QAT</t>
+  </si>
+  <si>
+    <t>W448KWT</t>
+  </si>
+  <si>
+    <t>W449LAO</t>
+  </si>
+  <si>
+    <t>"Demokratische Volksrepublik Laos"</t>
+  </si>
+  <si>
+    <t>W450KGZ</t>
+  </si>
+  <si>
+    <t>W451LBN</t>
+  </si>
+  <si>
+    <t>W454MDV</t>
+  </si>
+  <si>
+    <t>W456OMN</t>
+  </si>
+  <si>
+    <t>W457MNG</t>
+  </si>
+  <si>
+    <t>W458NPL</t>
+  </si>
+  <si>
+    <t>W460BGD</t>
+  </si>
+  <si>
+    <t>W461PAK</t>
+  </si>
+  <si>
+    <t>W462PHL</t>
+  </si>
+  <si>
+    <t>W467KOR</t>
+  </si>
+  <si>
+    <t>"Republik Korea"</t>
+  </si>
+  <si>
+    <t>W469ARE</t>
+  </si>
+  <si>
+    <t>W470TJK</t>
+  </si>
+  <si>
+    <t>W471TKM</t>
+  </si>
+  <si>
+    <t>W472SAU</t>
+  </si>
+  <si>
+    <t>W474SGP</t>
+  </si>
+  <si>
+    <t>W475SYR</t>
+  </si>
+  <si>
+    <t>"Arabische Republik Syrien"</t>
+  </si>
+  <si>
+    <t>W476THA</t>
+  </si>
+  <si>
+    <t>W477UZB</t>
+  </si>
+  <si>
+    <t>W479CHN</t>
+  </si>
+  <si>
+    <t>W479HKG</t>
+  </si>
+  <si>
+    <t>W479MAC</t>
+  </si>
+  <si>
+    <t>"Macau"</t>
+  </si>
+  <si>
+    <t>W482MYS</t>
+  </si>
+  <si>
+    <t>W483TLS</t>
+  </si>
+  <si>
+    <t>"Timor-Leste"</t>
+  </si>
+  <si>
+    <t>W523AUS</t>
+  </si>
+  <si>
+    <t>"Ashmore- und Cartierinseln"</t>
+  </si>
+  <si>
+    <t>"Korallenmeerinseln"</t>
+  </si>
+  <si>
+    <t>W523CCK</t>
+  </si>
+  <si>
+    <t>"Kokosinseln"</t>
+  </si>
+  <si>
+    <t>W523CXR</t>
+  </si>
+  <si>
+    <t>"Weihnachtsinsel"</t>
+  </si>
+  <si>
+    <t>W523HMD</t>
+  </si>
+  <si>
+    <t>"Heard und McDonaldinseln"</t>
+  </si>
+  <si>
+    <t>W523NFK</t>
+  </si>
+  <si>
+    <t>"Norfolkinsel"</t>
+  </si>
+  <si>
+    <t>W524SLB</t>
+  </si>
+  <si>
+    <t>W526FJI</t>
+  </si>
+  <si>
+    <t>W527COK</t>
+  </si>
+  <si>
+    <t>W530KIR</t>
+  </si>
+  <si>
+    <t>W531NRU</t>
+  </si>
+  <si>
+    <t>W532VUT</t>
+  </si>
+  <si>
+    <t>W533NIU</t>
+  </si>
+  <si>
+    <t>W536NZL</t>
+  </si>
+  <si>
+    <t>W536TKL</t>
+  </si>
+  <si>
+    <t>"Tokelau"</t>
+  </si>
+  <si>
+    <t>W537PLW</t>
+  </si>
+  <si>
+    <t>W538PNG</t>
+  </si>
+  <si>
+    <t>W540TUV</t>
+  </si>
+  <si>
+    <t>W541TON</t>
+  </si>
+  <si>
+    <t>W543WSM</t>
+  </si>
+  <si>
+    <t>W544MHL</t>
+  </si>
+  <si>
+    <t>W545FSM</t>
+  </si>
+  <si>
+    <t>W995TWN</t>
+  </si>
+  <si>
+    <t>Staatenschluessel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -2275,11 +3176,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2627,32 +3528,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F242"/>
   <sheetViews>
     <sheetView topLeftCell="A29" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:IV36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="3"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="F1" s="4" t="s">
         <v>475</v>
       </c>
@@ -5389,7 +6291,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F3"/>
+  <autoFilter ref="A3:F3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
@@ -5405,16 +6307,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5648,7 +6551,7 @@
         <f t="shared" si="0"/>
         <v>W132</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>700</v>
       </c>
     </row>
@@ -5660,7 +6563,7 @@
         <f t="shared" si="0"/>
         <v>W133</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>701</v>
       </c>
     </row>
@@ -8242,6 +9145,2893 @@
       </c>
       <c r="C239" t="s">
         <v>699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38078358-9A2C-4F0C-97DB-CD2A215C1ED6}">
+  <sheetPr codeName="Tabelle3"/>
+  <dimension ref="A1:C239"/>
+  <sheetViews>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A239"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="str">
+        <f>MID(B2,2,3)</f>
+        <v>000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A66" si="0">MID(B3,2,3)</f>
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>720</v>
+      </c>
+      <c r="C6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>721</v>
+      </c>
+      <c r="C7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>722</v>
+      </c>
+      <c r="C8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C9" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C10" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>727</v>
+      </c>
+      <c r="C11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>728</v>
+      </c>
+      <c r="C12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>729</v>
+      </c>
+      <c r="C13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>730</v>
+      </c>
+      <c r="C14" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>732</v>
+      </c>
+      <c r="C15" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>734</v>
+      </c>
+      <c r="C16" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>736</v>
+      </c>
+      <c r="C17" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>738</v>
+      </c>
+      <c r="C18" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>740</v>
+      </c>
+      <c r="C19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>742</v>
+      </c>
+      <c r="C20" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>744</v>
+      </c>
+      <c r="C21" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>745</v>
+      </c>
+      <c r="C22" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>746</v>
+      </c>
+      <c r="C23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>747</v>
+      </c>
+      <c r="C24" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>748</v>
+      </c>
+      <c r="C25" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>749</v>
+      </c>
+      <c r="C26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>750</v>
+      </c>
+      <c r="C27" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>751</v>
+      </c>
+      <c r="C28" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>752</v>
+      </c>
+      <c r="C29" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="B30" t="s">
+        <v>753</v>
+      </c>
+      <c r="C30" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>754</v>
+      </c>
+      <c r="C31" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>755</v>
+      </c>
+      <c r="C32" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>757</v>
+      </c>
+      <c r="C33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C34" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>760</v>
+      </c>
+      <c r="C35" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>761</v>
+      </c>
+      <c r="C36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>763</v>
+      </c>
+      <c r="C37" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="B38" t="s">
+        <v>765</v>
+      </c>
+      <c r="C38" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="B39" t="s">
+        <v>767</v>
+      </c>
+      <c r="C39" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>768</v>
+      </c>
+      <c r="C40" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
+        <v>770</v>
+      </c>
+      <c r="C41" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>771</v>
+      </c>
+      <c r="C42" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="B43" t="s">
+        <v>772</v>
+      </c>
+      <c r="C43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>774</v>
+      </c>
+      <c r="C44" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
+        <v>775</v>
+      </c>
+      <c r="C45" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
+        <v>776</v>
+      </c>
+      <c r="C46" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="B47" t="s">
+        <v>777</v>
+      </c>
+      <c r="C47" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="B48" t="s">
+        <v>778</v>
+      </c>
+      <c r="C48" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>779</v>
+      </c>
+      <c r="C49" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="B50" t="s">
+        <v>780</v>
+      </c>
+      <c r="C50" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="B51" t="s">
+        <v>781</v>
+      </c>
+      <c r="C51" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>781</v>
+      </c>
+      <c r="C52" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="B53" t="s">
+        <v>783</v>
+      </c>
+      <c r="C53" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="B54" t="s">
+        <v>784</v>
+      </c>
+      <c r="C54" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="B55" t="s">
+        <v>786</v>
+      </c>
+      <c r="C55" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="B56" t="s">
+        <v>787</v>
+      </c>
+      <c r="C56" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="B57" t="s">
+        <v>788</v>
+      </c>
+      <c r="C57" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B58" t="s">
+        <v>789</v>
+      </c>
+      <c r="C58" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B59" t="s">
+        <v>791</v>
+      </c>
+      <c r="C59" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B60" t="s">
+        <v>793</v>
+      </c>
+      <c r="C60" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B61" t="s">
+        <v>795</v>
+      </c>
+      <c r="C61" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B62" t="s">
+        <v>797</v>
+      </c>
+      <c r="C62" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B63" t="s">
+        <v>797</v>
+      </c>
+      <c r="C63" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B64" t="s">
+        <v>800</v>
+      </c>
+      <c r="C64" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B65" t="s">
+        <v>802</v>
+      </c>
+      <c r="C65" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B66" t="s">
+        <v>804</v>
+      </c>
+      <c r="C66" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="str">
+        <f t="shared" ref="A67:A130" si="1">MID(B67,2,3)</f>
+        <v>168</v>
+      </c>
+      <c r="B67" t="s">
+        <v>806</v>
+      </c>
+      <c r="C67" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="str">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="B68" t="s">
+        <v>808</v>
+      </c>
+      <c r="C68" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="str">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="B69" t="s">
+        <v>810</v>
+      </c>
+      <c r="C69" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="str">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>812</v>
+      </c>
+      <c r="C70" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="str">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="B71" t="s">
+        <v>814</v>
+      </c>
+      <c r="C71" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="str">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="B72" t="s">
+        <v>815</v>
+      </c>
+      <c r="C72" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="str">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="B73" t="s">
+        <v>816</v>
+      </c>
+      <c r="C73" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="str">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="B74" t="s">
+        <v>817</v>
+      </c>
+      <c r="C74" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="str">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="B75" t="s">
+        <v>818</v>
+      </c>
+      <c r="C75" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="str">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="B76" t="s">
+        <v>819</v>
+      </c>
+      <c r="C76" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="str">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+      <c r="B77" t="s">
+        <v>820</v>
+      </c>
+      <c r="C77" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="str">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="B78" t="s">
+        <v>821</v>
+      </c>
+      <c r="C78" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="str">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+      <c r="B79" t="s">
+        <v>822</v>
+      </c>
+      <c r="C79" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="str">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="B80" t="s">
+        <v>823</v>
+      </c>
+      <c r="C80" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="str">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="B81" t="s">
+        <v>824</v>
+      </c>
+      <c r="C81" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="str">
+        <f t="shared" si="1"/>
+        <v>232</v>
+      </c>
+      <c r="B82" t="s">
+        <v>826</v>
+      </c>
+      <c r="C82" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="str">
+        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+      <c r="B83" t="s">
+        <v>827</v>
+      </c>
+      <c r="C83" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="str">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="B84" t="s">
+        <v>828</v>
+      </c>
+      <c r="C84" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="str">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="B85" t="s">
+        <v>829</v>
+      </c>
+      <c r="C85" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="str">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="B86" t="s">
+        <v>830</v>
+      </c>
+      <c r="C86" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="str">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="B87" t="s">
+        <v>831</v>
+      </c>
+      <c r="C87" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="str">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+      <c r="B88" t="s">
+        <v>832</v>
+      </c>
+      <c r="C88" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="str">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="B89" t="s">
+        <v>834</v>
+      </c>
+      <c r="C89" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="str">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="B90" t="s">
+        <v>835</v>
+      </c>
+      <c r="C90" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="str">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="B91" t="s">
+        <v>836</v>
+      </c>
+      <c r="C91" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="str">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+      <c r="B92" t="s">
+        <v>837</v>
+      </c>
+      <c r="C92" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="str">
+        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
+      <c r="B93" t="s">
+        <v>839</v>
+      </c>
+      <c r="C93" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="str">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="B94" t="s">
+        <v>840</v>
+      </c>
+      <c r="C94" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="str">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+      <c r="B95" t="s">
+        <v>842</v>
+      </c>
+      <c r="C95" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="str">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+      <c r="B96" t="s">
+        <v>843</v>
+      </c>
+      <c r="C96" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="str">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="B97" t="s">
+        <v>844</v>
+      </c>
+      <c r="C97" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="str">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="B98" t="s">
+        <v>846</v>
+      </c>
+      <c r="C98" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="str">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="B99" t="s">
+        <v>847</v>
+      </c>
+      <c r="C99" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="str">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="B100" t="s">
+        <v>848</v>
+      </c>
+      <c r="C100" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="str">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="B101" t="s">
+        <v>849</v>
+      </c>
+      <c r="C101" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="str">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="B102" t="s">
+        <v>850</v>
+      </c>
+      <c r="C102" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="str">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="B103" t="s">
+        <v>851</v>
+      </c>
+      <c r="C103" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="str">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="B104" t="s">
+        <v>852</v>
+      </c>
+      <c r="C104" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="str">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="B105" t="s">
+        <v>854</v>
+      </c>
+      <c r="C105" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="str">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="B106" t="s">
+        <v>855</v>
+      </c>
+      <c r="C106" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="str">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="B107" t="s">
+        <v>856</v>
+      </c>
+      <c r="C107" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="str">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="B108" t="s">
+        <v>857</v>
+      </c>
+      <c r="C108" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="str">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="B109" t="s">
+        <v>858</v>
+      </c>
+      <c r="C109" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="str">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="B110" t="s">
+        <v>859</v>
+      </c>
+      <c r="C110" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="str">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="B111" t="s">
+        <v>860</v>
+      </c>
+      <c r="C111" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="str">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="B112" t="s">
+        <v>862</v>
+      </c>
+      <c r="C112" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="str">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="B113" t="s">
+        <v>863</v>
+      </c>
+      <c r="C113" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="str">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+      <c r="B114" t="s">
+        <v>864</v>
+      </c>
+      <c r="C114" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="str">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="B115" t="s">
+        <v>865</v>
+      </c>
+      <c r="C115" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="str">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="B116" t="s">
+        <v>866</v>
+      </c>
+      <c r="C116" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="str">
+        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
+      <c r="B117" t="s">
+        <v>867</v>
+      </c>
+      <c r="C117" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="str">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+      <c r="B118" t="s">
+        <v>868</v>
+      </c>
+      <c r="C118" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="str">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+      <c r="B119" t="s">
+        <v>870</v>
+      </c>
+      <c r="C119" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="str">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="B120" t="s">
+        <v>871</v>
+      </c>
+      <c r="C120" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="str">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="B121" t="s">
+        <v>873</v>
+      </c>
+      <c r="C121" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="str">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="B122" t="s">
+        <v>875</v>
+      </c>
+      <c r="C122" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="str">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="B123" t="s">
+        <v>876</v>
+      </c>
+      <c r="C123" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="str">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="B124" t="s">
+        <v>877</v>
+      </c>
+      <c r="C124" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="str">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+      <c r="B125" t="s">
+        <v>878</v>
+      </c>
+      <c r="C125" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="str">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="B126" t="s">
+        <v>879</v>
+      </c>
+      <c r="C126" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="str">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="B127" t="s">
+        <v>880</v>
+      </c>
+      <c r="C127" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="str">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="B128" t="s">
+        <v>881</v>
+      </c>
+      <c r="C128" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="str">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="B129" t="s">
+        <v>882</v>
+      </c>
+      <c r="C129" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="str">
+        <f t="shared" si="1"/>
+        <v>322</v>
+      </c>
+      <c r="B130" t="s">
+        <v>883</v>
+      </c>
+      <c r="C130" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="str">
+        <f t="shared" ref="A131:A194" si="2">MID(B131,2,3)</f>
+        <v>323</v>
+      </c>
+      <c r="B131" t="s">
+        <v>884</v>
+      </c>
+      <c r="C131" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="str">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="B132" t="s">
+        <v>885</v>
+      </c>
+      <c r="C132" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="str">
+        <f t="shared" si="2"/>
+        <v>326</v>
+      </c>
+      <c r="B133" t="s">
+        <v>886</v>
+      </c>
+      <c r="C133" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="str">
+        <f t="shared" si="2"/>
+        <v>327</v>
+      </c>
+      <c r="B134" t="s">
+        <v>888</v>
+      </c>
+      <c r="C134" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="str">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="B135" t="s">
+        <v>889</v>
+      </c>
+      <c r="C135" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="str">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="B136" t="s">
+        <v>890</v>
+      </c>
+      <c r="C136" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="str">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+      <c r="B137" t="s">
+        <v>891</v>
+      </c>
+      <c r="C137" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="str">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="B138" t="s">
+        <v>892</v>
+      </c>
+      <c r="C138" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="str">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="B139" t="s">
+        <v>893</v>
+      </c>
+      <c r="C139" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="str">
+        <f t="shared" si="2"/>
+        <v>335</v>
+      </c>
+      <c r="B140" t="s">
+        <v>894</v>
+      </c>
+      <c r="C140" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="str">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="B141" t="s">
+        <v>895</v>
+      </c>
+      <c r="C141" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="str">
+        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+      <c r="B142" t="s">
+        <v>896</v>
+      </c>
+      <c r="C142" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="str">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="B143" t="s">
+        <v>897</v>
+      </c>
+      <c r="C143" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="str">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="B144" t="s">
+        <v>898</v>
+      </c>
+      <c r="C144" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="str">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+      <c r="B145" t="s">
+        <v>899</v>
+      </c>
+      <c r="C145" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="str">
+        <f t="shared" si="2"/>
+        <v>347</v>
+      </c>
+      <c r="B146" t="s">
+        <v>900</v>
+      </c>
+      <c r="C146" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="str">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="B147" t="s">
+        <v>901</v>
+      </c>
+      <c r="C147" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="str">
+        <f t="shared" si="2"/>
+        <v>349</v>
+      </c>
+      <c r="B148" t="s">
+        <v>902</v>
+      </c>
+      <c r="C148" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="str">
+        <f t="shared" si="2"/>
+        <v>351</v>
+      </c>
+      <c r="B149" t="s">
+        <v>903</v>
+      </c>
+      <c r="C149" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="str">
+        <f t="shared" si="2"/>
+        <v>353</v>
+      </c>
+      <c r="B150" t="s">
+        <v>904</v>
+      </c>
+      <c r="C150" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="str">
+        <f t="shared" si="2"/>
+        <v>354</v>
+      </c>
+      <c r="B151" t="s">
+        <v>905</v>
+      </c>
+      <c r="C151" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="str">
+        <f t="shared" si="2"/>
+        <v>355</v>
+      </c>
+      <c r="B152" t="s">
+        <v>906</v>
+      </c>
+      <c r="C152" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="str">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+      <c r="B153" t="s">
+        <v>907</v>
+      </c>
+      <c r="C153" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="str">
+        <f t="shared" si="2"/>
+        <v>359</v>
+      </c>
+      <c r="B154" t="s">
+        <v>908</v>
+      </c>
+      <c r="C154" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="str">
+        <f t="shared" si="2"/>
+        <v>361</v>
+      </c>
+      <c r="B155" t="s">
+        <v>909</v>
+      </c>
+      <c r="C155" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="str">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+      <c r="B156" t="s">
+        <v>910</v>
+      </c>
+      <c r="C156" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="str">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="B157" t="s">
+        <v>911</v>
+      </c>
+      <c r="C157" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="str">
+        <f t="shared" si="2"/>
+        <v>366</v>
+      </c>
+      <c r="B158" t="s">
+        <v>912</v>
+      </c>
+      <c r="C158" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="str">
+        <f t="shared" si="2"/>
+        <v>367</v>
+      </c>
+      <c r="B159" t="s">
+        <v>913</v>
+      </c>
+      <c r="C159" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="str">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="B160" t="s">
+        <v>915</v>
+      </c>
+      <c r="C160" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="str">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="B161" t="s">
+        <v>917</v>
+      </c>
+      <c r="C161" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="str">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="B162" t="s">
+        <v>919</v>
+      </c>
+      <c r="C162" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="str">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="B163" t="s">
+        <v>920</v>
+      </c>
+      <c r="C163" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="str">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="B164" t="s">
+        <v>922</v>
+      </c>
+      <c r="C164" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="str">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="B165" t="s">
+        <v>923</v>
+      </c>
+      <c r="C165" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="str">
+        <f t="shared" si="2"/>
+        <v>369</v>
+      </c>
+      <c r="B166" t="s">
+        <v>925</v>
+      </c>
+      <c r="C166" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="str">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+      <c r="B167" t="s">
+        <v>926</v>
+      </c>
+      <c r="C167" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="str">
+        <f t="shared" si="2"/>
+        <v>371</v>
+      </c>
+      <c r="B168" t="s">
+        <v>927</v>
+      </c>
+      <c r="C168" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="str">
+        <f t="shared" si="2"/>
+        <v>421</v>
+      </c>
+      <c r="B169" t="s">
+        <v>928</v>
+      </c>
+      <c r="C169" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="str">
+        <f t="shared" si="2"/>
+        <v>422</v>
+      </c>
+      <c r="B170" t="s">
+        <v>929</v>
+      </c>
+      <c r="C170" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="str">
+        <f t="shared" si="2"/>
+        <v>423</v>
+      </c>
+      <c r="B171" t="s">
+        <v>930</v>
+      </c>
+      <c r="C171" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="str">
+        <f t="shared" si="2"/>
+        <v>424</v>
+      </c>
+      <c r="B172" t="s">
+        <v>931</v>
+      </c>
+      <c r="C172" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="str">
+        <f t="shared" si="2"/>
+        <v>425</v>
+      </c>
+      <c r="B173" t="s">
+        <v>932</v>
+      </c>
+      <c r="C173" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="str">
+        <f t="shared" si="2"/>
+        <v>426</v>
+      </c>
+      <c r="B174" t="s">
+        <v>933</v>
+      </c>
+      <c r="C174" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="str">
+        <f t="shared" si="2"/>
+        <v>427</v>
+      </c>
+      <c r="B175" t="s">
+        <v>934</v>
+      </c>
+      <c r="C175" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="str">
+        <f t="shared" si="2"/>
+        <v>429</v>
+      </c>
+      <c r="B176" t="s">
+        <v>935</v>
+      </c>
+      <c r="C176" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="str">
+        <f t="shared" si="2"/>
+        <v>430</v>
+      </c>
+      <c r="B177" t="s">
+        <v>936</v>
+      </c>
+      <c r="C177" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="str">
+        <f t="shared" si="2"/>
+        <v>431</v>
+      </c>
+      <c r="B178" t="s">
+        <v>937</v>
+      </c>
+      <c r="C178" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="str">
+        <f t="shared" si="2"/>
+        <v>432</v>
+      </c>
+      <c r="B179" t="s">
+        <v>938</v>
+      </c>
+      <c r="C179" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="str">
+        <f t="shared" si="2"/>
+        <v>434</v>
+      </c>
+      <c r="B180" t="s">
+        <v>939</v>
+      </c>
+      <c r="C180" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="str">
+        <f t="shared" si="2"/>
+        <v>436</v>
+      </c>
+      <c r="B181" t="s">
+        <v>941</v>
+      </c>
+      <c r="C181" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="str">
+        <f t="shared" si="2"/>
+        <v>437</v>
+      </c>
+      <c r="B182" t="s">
+        <v>942</v>
+      </c>
+      <c r="C182" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="str">
+        <f t="shared" si="2"/>
+        <v>438</v>
+      </c>
+      <c r="B183" t="s">
+        <v>943</v>
+      </c>
+      <c r="C183" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="str">
+        <f t="shared" si="2"/>
+        <v>439</v>
+      </c>
+      <c r="B184" t="s">
+        <v>944</v>
+      </c>
+      <c r="C184" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="str">
+        <f t="shared" si="2"/>
+        <v>441</v>
+      </c>
+      <c r="B185" t="s">
+        <v>946</v>
+      </c>
+      <c r="C185" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="str">
+        <f t="shared" si="2"/>
+        <v>442</v>
+      </c>
+      <c r="B186" t="s">
+        <v>947</v>
+      </c>
+      <c r="C186" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="str">
+        <f t="shared" si="2"/>
+        <v>444</v>
+      </c>
+      <c r="B187" t="s">
+        <v>948</v>
+      </c>
+      <c r="C187" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="str">
+        <f t="shared" si="2"/>
+        <v>445</v>
+      </c>
+      <c r="B188" t="s">
+        <v>949</v>
+      </c>
+      <c r="C188" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="str">
+        <f t="shared" si="2"/>
+        <v>446</v>
+      </c>
+      <c r="B189" t="s">
+        <v>950</v>
+      </c>
+      <c r="C189" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="str">
+        <f t="shared" si="2"/>
+        <v>447</v>
+      </c>
+      <c r="B190" t="s">
+        <v>951</v>
+      </c>
+      <c r="C190" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="str">
+        <f t="shared" si="2"/>
+        <v>448</v>
+      </c>
+      <c r="B191" t="s">
+        <v>952</v>
+      </c>
+      <c r="C191" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="str">
+        <f t="shared" si="2"/>
+        <v>449</v>
+      </c>
+      <c r="B192" t="s">
+        <v>953</v>
+      </c>
+      <c r="C192" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="str">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="B193" t="s">
+        <v>955</v>
+      </c>
+      <c r="C193" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="str">
+        <f t="shared" si="2"/>
+        <v>451</v>
+      </c>
+      <c r="B194" t="s">
+        <v>956</v>
+      </c>
+      <c r="C194" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="str">
+        <f t="shared" ref="A195:A239" si="3">MID(B195,2,3)</f>
+        <v>454</v>
+      </c>
+      <c r="B195" t="s">
+        <v>957</v>
+      </c>
+      <c r="C195" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="str">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="B196" t="s">
+        <v>958</v>
+      </c>
+      <c r="C196" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="str">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="B197" t="s">
+        <v>959</v>
+      </c>
+      <c r="C197" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="str">
+        <f t="shared" si="3"/>
+        <v>458</v>
+      </c>
+      <c r="B198" t="s">
+        <v>960</v>
+      </c>
+      <c r="C198" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="str">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="B199" t="s">
+        <v>961</v>
+      </c>
+      <c r="C199" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="str">
+        <f t="shared" si="3"/>
+        <v>461</v>
+      </c>
+      <c r="B200" t="s">
+        <v>962</v>
+      </c>
+      <c r="C200" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="str">
+        <f t="shared" si="3"/>
+        <v>462</v>
+      </c>
+      <c r="B201" t="s">
+        <v>963</v>
+      </c>
+      <c r="C201" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="str">
+        <f t="shared" si="3"/>
+        <v>467</v>
+      </c>
+      <c r="B202" t="s">
+        <v>964</v>
+      </c>
+      <c r="C202" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="str">
+        <f t="shared" si="3"/>
+        <v>469</v>
+      </c>
+      <c r="B203" t="s">
+        <v>966</v>
+      </c>
+      <c r="C203" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="str">
+        <f t="shared" si="3"/>
+        <v>470</v>
+      </c>
+      <c r="B204" t="s">
+        <v>967</v>
+      </c>
+      <c r="C204" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="str">
+        <f t="shared" si="3"/>
+        <v>471</v>
+      </c>
+      <c r="B205" t="s">
+        <v>968</v>
+      </c>
+      <c r="C205" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="str">
+        <f t="shared" si="3"/>
+        <v>472</v>
+      </c>
+      <c r="B206" t="s">
+        <v>969</v>
+      </c>
+      <c r="C206" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="str">
+        <f t="shared" si="3"/>
+        <v>474</v>
+      </c>
+      <c r="B207" t="s">
+        <v>970</v>
+      </c>
+      <c r="C207" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="str">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="B208" t="s">
+        <v>971</v>
+      </c>
+      <c r="C208" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="str">
+        <f t="shared" si="3"/>
+        <v>476</v>
+      </c>
+      <c r="B209" t="s">
+        <v>973</v>
+      </c>
+      <c r="C209" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="str">
+        <f t="shared" si="3"/>
+        <v>477</v>
+      </c>
+      <c r="B210" t="s">
+        <v>974</v>
+      </c>
+      <c r="C210" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="str">
+        <f t="shared" si="3"/>
+        <v>479</v>
+      </c>
+      <c r="B211" t="s">
+        <v>975</v>
+      </c>
+      <c r="C211" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="str">
+        <f t="shared" si="3"/>
+        <v>479</v>
+      </c>
+      <c r="B212" t="s">
+        <v>976</v>
+      </c>
+      <c r="C212" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="str">
+        <f t="shared" si="3"/>
+        <v>479</v>
+      </c>
+      <c r="B213" t="s">
+        <v>977</v>
+      </c>
+      <c r="C213" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="str">
+        <f t="shared" si="3"/>
+        <v>482</v>
+      </c>
+      <c r="B214" t="s">
+        <v>979</v>
+      </c>
+      <c r="C214" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="str">
+        <f t="shared" si="3"/>
+        <v>483</v>
+      </c>
+      <c r="B215" t="s">
+        <v>980</v>
+      </c>
+      <c r="C215" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="str">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+      <c r="B216" t="s">
+        <v>982</v>
+      </c>
+      <c r="C216" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="str">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+      <c r="B217" t="s">
+        <v>982</v>
+      </c>
+      <c r="C217" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="str">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+      <c r="B218" t="s">
+        <v>982</v>
+      </c>
+      <c r="C218" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="str">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+      <c r="B219" t="s">
+        <v>985</v>
+      </c>
+      <c r="C219" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="str">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+      <c r="B220" t="s">
+        <v>987</v>
+      </c>
+      <c r="C220" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="str">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+      <c r="B221" t="s">
+        <v>989</v>
+      </c>
+      <c r="C221" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="str">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+      <c r="B222" t="s">
+        <v>991</v>
+      </c>
+      <c r="C222" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="str">
+        <f t="shared" si="3"/>
+        <v>524</v>
+      </c>
+      <c r="B223" t="s">
+        <v>993</v>
+      </c>
+      <c r="C223" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="str">
+        <f t="shared" si="3"/>
+        <v>526</v>
+      </c>
+      <c r="B224" t="s">
+        <v>994</v>
+      </c>
+      <c r="C224" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="str">
+        <f t="shared" si="3"/>
+        <v>527</v>
+      </c>
+      <c r="B225" t="s">
+        <v>995</v>
+      </c>
+      <c r="C225" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="str">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+      <c r="B226" t="s">
+        <v>996</v>
+      </c>
+      <c r="C226" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="str">
+        <f t="shared" si="3"/>
+        <v>531</v>
+      </c>
+      <c r="B227" t="s">
+        <v>997</v>
+      </c>
+      <c r="C227" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="str">
+        <f t="shared" si="3"/>
+        <v>532</v>
+      </c>
+      <c r="B228" t="s">
+        <v>998</v>
+      </c>
+      <c r="C228" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="str">
+        <f t="shared" si="3"/>
+        <v>533</v>
+      </c>
+      <c r="B229" t="s">
+        <v>999</v>
+      </c>
+      <c r="C229" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="str">
+        <f t="shared" si="3"/>
+        <v>536</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C230" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="str">
+        <f t="shared" si="3"/>
+        <v>536</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="str">
+        <f t="shared" si="3"/>
+        <v>537</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C232" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="str">
+        <f t="shared" si="3"/>
+        <v>538</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C233" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="str">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C234" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="str">
+        <f t="shared" si="3"/>
+        <v>541</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C235" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="str">
+        <f t="shared" si="3"/>
+        <v>543</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C236" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="str">
+        <f t="shared" si="3"/>
+        <v>544</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C237" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="str">
+        <f t="shared" si="3"/>
+        <v>545</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C238" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="str">
+        <f t="shared" si="3"/>
+        <v>995</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C239" t="s">
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/helpers/Staaten_Geocodes_Namen.xlsx
+++ b/helpers/Staaten_Geocodes_Namen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15_Uebergreifende_Analysen\Projekte\Integrationsmonitoring\github\IM_Data\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EDDAA8-1762-4400-A753-CBF44C18EC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8353BA74-32E2-4A23-966F-7573B54D2995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31935" yWindow="2505" windowWidth="21600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12936" yWindow="1284" windowWidth="9120" windowHeight="8928" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="106_Anlagen_Intern" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'106_Anlagen_Intern'!$A$3:$F$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="1" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3536,14 +3536,14 @@
       <selection activeCell="A36" sqref="A36:IV36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12">
@@ -6312,12 +6312,12 @@
   <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9161,10 +9161,10 @@
       <selection activeCell="A2" sqref="A2:A239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/helpers/Staaten_Geocodes_Namen.xlsx
+++ b/helpers/Staaten_Geocodes_Namen.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15_Uebergreifende_Analysen\Projekte\Integrationsmonitoring\github\IM_Data\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8353BA74-32E2-4A23-966F-7573B54D2995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4CDDA0-8177-4602-8D53-477C43B7F19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12936" yWindow="1284" windowWidth="9120" windowHeight="8928" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="106_Anlagen_Intern" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'106_Anlagen_Intern'!$A$3:$F$3</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="1013">
   <si>
     <t>106.01</t>
   </si>
@@ -3072,6 +3073,9 @@
   </si>
   <si>
     <t>Staatenschluessel</t>
+  </si>
+  <si>
+    <t>Testdaten Hinzufügen</t>
   </si>
 </sst>
 </file>
@@ -6311,7 +6315,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -9158,7 +9162,7 @@
   <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A239"/>
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -12037,4 +12041,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB97F21F-2F09-427A-90AA-88B00AFDB896}">
+  <sheetPr codeName="Tabelle4"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/helpers/Staaten_Geocodes_Namen.xlsx
+++ b/helpers/Staaten_Geocodes_Namen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15_Uebergreifende_Analysen\Projekte\Integrationsmonitoring\github\IM_Data\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4CDDA0-8177-4602-8D53-477C43B7F19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C99ED8-F3C4-461B-8383-647B8B300F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="106_Anlagen_Intern" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'106_Anlagen_Intern'!$A$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle1!$A$1:$C$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3540,14 +3541,14 @@
       <selection activeCell="A36" sqref="A36:IV36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="3"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12">
@@ -6315,13 +6316,13 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9152,6 +9153,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C239" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9165,10 +9167,10 @@
       <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12048,11 +12050,11 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
